--- a/deployable examples/deduplicate_access_events/src/deduplicate_audit_example.xlsx
+++ b/deployable examples/deduplicate_access_events/src/deduplicate_audit_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshbregman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA3E8BF-6C08-4C77-B62C-6C355BA6037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E2E1B3-D838-424B-8CB3-DE274449F217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="16380" windowHeight="10260" activeTab="4" xr2:uid="{F17E21AF-5E05-4ECF-8E29-50A77CA88224}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="16380" windowHeight="10260" activeTab="1" xr2:uid="{F17E21AF-5E05-4ECF-8E29-50A77CA88224}"/>
   </bookViews>
   <sheets>
     <sheet name="All Devices" sheetId="18" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -162,12 +162,6 @@
     <t>All Devices</t>
   </si>
   <si>
-    <t>Audit Allowed Example</t>
-  </si>
-  <si>
-    <t>Audit all access on all devices</t>
-  </si>
-  <si>
     <t>PrimaryId</t>
   </si>
   <si>
@@ -181,6 +175,21 @@
   </si>
   <si>
     <t>PrinterDevices</t>
+  </si>
+  <si>
+    <t>Audit any deny access</t>
+  </si>
+  <si>
+    <t>Send an event for all allowed operations</t>
+  </si>
+  <si>
+    <t>Send an event and notify the user for all denied operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Devices Audit Allows </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Devices Audit and Notify Denies </t>
   </si>
 </sst>
 </file>
@@ -570,7 +579,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -581,27 +590,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -612,10 +621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D8DADB-7CF6-48C8-A3AB-15DCC09744A3}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -654,16 +663,30 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +743,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -741,7 +764,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
@@ -759,10 +782,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409B0504-EC05-4B1B-97F5-884FF44238AD}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -888,29 +911,44 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
       <c r="J5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="J6">
@@ -919,10 +957,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -931,18 +969,15 @@
         <v>24</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -951,15 +986,15 @@
         <v>24</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -971,34 +1006,54 @@
         <v>24</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11">
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12">
         <v>3</v>
       </c>
     </row>
